--- a/Week-4-Results/time.xlsx
+++ b/Week-4-Results/time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amyta\OneDrive - Georgia Institute of Technology\Documents\mc-chess\Week-4-Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0F91A5-372C-4F71-9311-DE3E469C048D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB703973-E10C-490C-B348-6FD6368C7560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="984" windowWidth="23040" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1704" windowWidth="23040" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="14">
   <si>
     <t>Number</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Moves From End</t>
+  </si>
+  <si>
+    <t>8/5k1p/8/8/3Q1P2/6K1/8/4q3 w - - 3 89</t>
+  </si>
+  <si>
+    <t>4k3/2K1P3/2N5/5nP1/8/8/4R3/3r4 w - - 41 109</t>
   </si>
 </sst>
 </file>
@@ -677,10 +683,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>time!$B$2:$B$153</c:f>
+              <c:f>time!$B$2:$B$255</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="152"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
                 </c:pt>
@@ -1130,6 +1136,306 @@
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2159</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2346</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2227</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2243</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2170</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2112</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2195</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2207</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2299</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2205</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2201</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2195</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2254</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2189</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2216</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2162</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2267</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2226</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2173</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2192</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2191</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2163</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2151</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2290</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2188</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2195</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2183</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2186</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2237</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2218</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2224</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2198</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2221</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2183</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2123</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2264</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2217</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2313</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2106</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2216</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2211</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2165</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2154</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2181</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2191</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1137,7 +1443,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6FBA-4A02-BAA4-11D65C4607C7}"/>
+              <c16:uniqueId val="{00000000-724B-461A-988E-154B56F14519}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1169,10 +1475,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>time!$C$2:$C$153</c:f>
+              <c:f>time!$C$2:$C$255</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="152"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
                 </c:pt>
@@ -1622,6 +1928,306 @@
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1629,7 +2235,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6FBA-4A02-BAA4-11D65C4607C7}"/>
+              <c16:uniqueId val="{00000001-724B-461A-988E-154B56F14519}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1642,11 +2248,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="829897328"/>
-        <c:axId val="832510592"/>
+        <c:axId val="1929013024"/>
+        <c:axId val="2104498960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="829897328"/>
+        <c:axId val="1929013024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,7 +2294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="832510592"/>
+        <c:crossAx val="2104498960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1696,7 +2302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="832510592"/>
+        <c:axId val="2104498960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1747,7 +2353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="829897328"/>
+        <c:crossAx val="1929013024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2394,23 +3000,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B6D6DE-8A4D-EFC2-D152-9921C027A236}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41367469-5BDE-DAC5-555A-285F2D1450C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2728,10 +3334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104:H153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7118,6 +7724,2906 @@
         <v>10</v>
       </c>
     </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>191</v>
+      </c>
+      <c r="C155">
+        <v>140</v>
+      </c>
+      <c r="D155">
+        <v>9669</v>
+      </c>
+      <c r="E155">
+        <v>10000</v>
+      </c>
+      <c r="F155">
+        <v>0.05</v>
+      </c>
+      <c r="G155">
+        <v>0.1</v>
+      </c>
+      <c r="H155">
+        <v>20</v>
+      </c>
+      <c r="I155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>2</v>
+      </c>
+      <c r="B156">
+        <v>182</v>
+      </c>
+      <c r="C156">
+        <v>140</v>
+      </c>
+      <c r="D156">
+        <v>9678</v>
+      </c>
+      <c r="E156">
+        <v>10000</v>
+      </c>
+      <c r="F156">
+        <v>0.05</v>
+      </c>
+      <c r="G156">
+        <v>0.1</v>
+      </c>
+      <c r="H156">
+        <v>20</v>
+      </c>
+      <c r="I156" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>3</v>
+      </c>
+      <c r="B157">
+        <v>167</v>
+      </c>
+      <c r="C157">
+        <v>134</v>
+      </c>
+      <c r="D157">
+        <v>9699</v>
+      </c>
+      <c r="E157">
+        <v>10000</v>
+      </c>
+      <c r="F157">
+        <v>0.05</v>
+      </c>
+      <c r="G157">
+        <v>0.1</v>
+      </c>
+      <c r="H157">
+        <v>20</v>
+      </c>
+      <c r="I157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>4</v>
+      </c>
+      <c r="B158">
+        <v>167</v>
+      </c>
+      <c r="C158">
+        <v>131</v>
+      </c>
+      <c r="D158">
+        <v>9702</v>
+      </c>
+      <c r="E158">
+        <v>10000</v>
+      </c>
+      <c r="F158">
+        <v>0.05</v>
+      </c>
+      <c r="G158">
+        <v>0.1</v>
+      </c>
+      <c r="H158">
+        <v>20</v>
+      </c>
+      <c r="I158" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>5</v>
+      </c>
+      <c r="B159">
+        <v>168</v>
+      </c>
+      <c r="C159">
+        <v>151</v>
+      </c>
+      <c r="D159">
+        <v>9681</v>
+      </c>
+      <c r="E159">
+        <v>10000</v>
+      </c>
+      <c r="F159">
+        <v>0.05</v>
+      </c>
+      <c r="G159">
+        <v>0.1</v>
+      </c>
+      <c r="H159">
+        <v>20</v>
+      </c>
+      <c r="I159" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>6</v>
+      </c>
+      <c r="B160">
+        <v>145</v>
+      </c>
+      <c r="C160">
+        <v>147</v>
+      </c>
+      <c r="D160">
+        <v>9708</v>
+      </c>
+      <c r="E160">
+        <v>10000</v>
+      </c>
+      <c r="F160">
+        <v>0.05</v>
+      </c>
+      <c r="G160">
+        <v>0.1</v>
+      </c>
+      <c r="H160">
+        <v>20</v>
+      </c>
+      <c r="I160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161">
+        <v>201</v>
+      </c>
+      <c r="C161">
+        <v>160</v>
+      </c>
+      <c r="D161">
+        <v>9639</v>
+      </c>
+      <c r="E161">
+        <v>10000</v>
+      </c>
+      <c r="F161">
+        <v>0.05</v>
+      </c>
+      <c r="G161">
+        <v>0.1</v>
+      </c>
+      <c r="H161">
+        <v>20</v>
+      </c>
+      <c r="I161" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>8</v>
+      </c>
+      <c r="B162">
+        <v>180</v>
+      </c>
+      <c r="C162">
+        <v>141</v>
+      </c>
+      <c r="D162">
+        <v>9679</v>
+      </c>
+      <c r="E162">
+        <v>10000</v>
+      </c>
+      <c r="F162">
+        <v>0.05</v>
+      </c>
+      <c r="G162">
+        <v>0.1</v>
+      </c>
+      <c r="H162">
+        <v>20</v>
+      </c>
+      <c r="I162" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>9</v>
+      </c>
+      <c r="B163">
+        <v>183</v>
+      </c>
+      <c r="C163">
+        <v>147</v>
+      </c>
+      <c r="D163">
+        <v>9670</v>
+      </c>
+      <c r="E163">
+        <v>10000</v>
+      </c>
+      <c r="F163">
+        <v>0.05</v>
+      </c>
+      <c r="G163">
+        <v>0.1</v>
+      </c>
+      <c r="H163">
+        <v>20</v>
+      </c>
+      <c r="I163" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>10</v>
+      </c>
+      <c r="B164">
+        <v>185</v>
+      </c>
+      <c r="C164">
+        <v>129</v>
+      </c>
+      <c r="D164">
+        <v>9686</v>
+      </c>
+      <c r="E164">
+        <v>10000</v>
+      </c>
+      <c r="F164">
+        <v>0.05</v>
+      </c>
+      <c r="G164">
+        <v>0.1</v>
+      </c>
+      <c r="H164">
+        <v>20</v>
+      </c>
+      <c r="I164" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>11</v>
+      </c>
+      <c r="B165">
+        <v>202</v>
+      </c>
+      <c r="C165">
+        <v>137</v>
+      </c>
+      <c r="D165">
+        <v>9661</v>
+      </c>
+      <c r="E165">
+        <v>10000</v>
+      </c>
+      <c r="F165">
+        <v>0.05</v>
+      </c>
+      <c r="G165">
+        <v>0.1</v>
+      </c>
+      <c r="H165">
+        <v>20</v>
+      </c>
+      <c r="I165" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>12</v>
+      </c>
+      <c r="B166">
+        <v>190</v>
+      </c>
+      <c r="C166">
+        <v>131</v>
+      </c>
+      <c r="D166">
+        <v>9679</v>
+      </c>
+      <c r="E166">
+        <v>10000</v>
+      </c>
+      <c r="F166">
+        <v>0.05</v>
+      </c>
+      <c r="G166">
+        <v>0.1</v>
+      </c>
+      <c r="H166">
+        <v>20</v>
+      </c>
+      <c r="I166" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>13</v>
+      </c>
+      <c r="B167">
+        <v>163</v>
+      </c>
+      <c r="C167">
+        <v>140</v>
+      </c>
+      <c r="D167">
+        <v>9697</v>
+      </c>
+      <c r="E167">
+        <v>10000</v>
+      </c>
+      <c r="F167">
+        <v>0.05</v>
+      </c>
+      <c r="G167">
+        <v>0.1</v>
+      </c>
+      <c r="H167">
+        <v>20</v>
+      </c>
+      <c r="I167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>14</v>
+      </c>
+      <c r="B168">
+        <v>184</v>
+      </c>
+      <c r="C168">
+        <v>127</v>
+      </c>
+      <c r="D168">
+        <v>9689</v>
+      </c>
+      <c r="E168">
+        <v>10000</v>
+      </c>
+      <c r="F168">
+        <v>0.05</v>
+      </c>
+      <c r="G168">
+        <v>0.1</v>
+      </c>
+      <c r="H168">
+        <v>20</v>
+      </c>
+      <c r="I168" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>15</v>
+      </c>
+      <c r="B169">
+        <v>175</v>
+      </c>
+      <c r="C169">
+        <v>144</v>
+      </c>
+      <c r="D169">
+        <v>9681</v>
+      </c>
+      <c r="E169">
+        <v>10000</v>
+      </c>
+      <c r="F169">
+        <v>0.05</v>
+      </c>
+      <c r="G169">
+        <v>0.1</v>
+      </c>
+      <c r="H169">
+        <v>20</v>
+      </c>
+      <c r="I169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>16</v>
+      </c>
+      <c r="B170">
+        <v>197</v>
+      </c>
+      <c r="C170">
+        <v>131</v>
+      </c>
+      <c r="D170">
+        <v>9672</v>
+      </c>
+      <c r="E170">
+        <v>10000</v>
+      </c>
+      <c r="F170">
+        <v>0.05</v>
+      </c>
+      <c r="G170">
+        <v>0.1</v>
+      </c>
+      <c r="H170">
+        <v>20</v>
+      </c>
+      <c r="I170" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>17</v>
+      </c>
+      <c r="B171">
+        <v>174</v>
+      </c>
+      <c r="C171">
+        <v>133</v>
+      </c>
+      <c r="D171">
+        <v>9693</v>
+      </c>
+      <c r="E171">
+        <v>10000</v>
+      </c>
+      <c r="F171">
+        <v>0.05</v>
+      </c>
+      <c r="G171">
+        <v>0.1</v>
+      </c>
+      <c r="H171">
+        <v>20</v>
+      </c>
+      <c r="I171" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>18</v>
+      </c>
+      <c r="B172">
+        <v>188</v>
+      </c>
+      <c r="C172">
+        <v>153</v>
+      </c>
+      <c r="D172">
+        <v>9659</v>
+      </c>
+      <c r="E172">
+        <v>10000</v>
+      </c>
+      <c r="F172">
+        <v>0.05</v>
+      </c>
+      <c r="G172">
+        <v>0.1</v>
+      </c>
+      <c r="H172">
+        <v>20</v>
+      </c>
+      <c r="I172" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>19</v>
+      </c>
+      <c r="B173">
+        <v>185</v>
+      </c>
+      <c r="C173">
+        <v>146</v>
+      </c>
+      <c r="D173">
+        <v>9669</v>
+      </c>
+      <c r="E173">
+        <v>10000</v>
+      </c>
+      <c r="F173">
+        <v>0.05</v>
+      </c>
+      <c r="G173">
+        <v>0.1</v>
+      </c>
+      <c r="H173">
+        <v>20</v>
+      </c>
+      <c r="I173" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>20</v>
+      </c>
+      <c r="B174">
+        <v>201</v>
+      </c>
+      <c r="C174">
+        <v>142</v>
+      </c>
+      <c r="D174">
+        <v>9657</v>
+      </c>
+      <c r="E174">
+        <v>10000</v>
+      </c>
+      <c r="F174">
+        <v>0.05</v>
+      </c>
+      <c r="G174">
+        <v>0.1</v>
+      </c>
+      <c r="H174">
+        <v>20</v>
+      </c>
+      <c r="I174" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>21</v>
+      </c>
+      <c r="B175">
+        <v>204</v>
+      </c>
+      <c r="C175">
+        <v>137</v>
+      </c>
+      <c r="D175">
+        <v>9659</v>
+      </c>
+      <c r="E175">
+        <v>10000</v>
+      </c>
+      <c r="F175">
+        <v>0.05</v>
+      </c>
+      <c r="G175">
+        <v>0.1</v>
+      </c>
+      <c r="H175">
+        <v>20</v>
+      </c>
+      <c r="I175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>22</v>
+      </c>
+      <c r="B176">
+        <v>205</v>
+      </c>
+      <c r="C176">
+        <v>115</v>
+      </c>
+      <c r="D176">
+        <v>9680</v>
+      </c>
+      <c r="E176">
+        <v>10000</v>
+      </c>
+      <c r="F176">
+        <v>0.05</v>
+      </c>
+      <c r="G176">
+        <v>0.1</v>
+      </c>
+      <c r="H176">
+        <v>20</v>
+      </c>
+      <c r="I176" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>23</v>
+      </c>
+      <c r="B177">
+        <v>179</v>
+      </c>
+      <c r="C177">
+        <v>130</v>
+      </c>
+      <c r="D177">
+        <v>9691</v>
+      </c>
+      <c r="E177">
+        <v>10000</v>
+      </c>
+      <c r="F177">
+        <v>0.05</v>
+      </c>
+      <c r="G177">
+        <v>0.1</v>
+      </c>
+      <c r="H177">
+        <v>20</v>
+      </c>
+      <c r="I177" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>24</v>
+      </c>
+      <c r="B178">
+        <v>172</v>
+      </c>
+      <c r="C178">
+        <v>134</v>
+      </c>
+      <c r="D178">
+        <v>9694</v>
+      </c>
+      <c r="E178">
+        <v>10000</v>
+      </c>
+      <c r="F178">
+        <v>0.05</v>
+      </c>
+      <c r="G178">
+        <v>0.1</v>
+      </c>
+      <c r="H178">
+        <v>20</v>
+      </c>
+      <c r="I178" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>25</v>
+      </c>
+      <c r="B179">
+        <v>187</v>
+      </c>
+      <c r="C179">
+        <v>130</v>
+      </c>
+      <c r="D179">
+        <v>9683</v>
+      </c>
+      <c r="E179">
+        <v>10000</v>
+      </c>
+      <c r="F179">
+        <v>0.05</v>
+      </c>
+      <c r="G179">
+        <v>0.1</v>
+      </c>
+      <c r="H179">
+        <v>20</v>
+      </c>
+      <c r="I179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>26</v>
+      </c>
+      <c r="B180">
+        <v>181</v>
+      </c>
+      <c r="C180">
+        <v>142</v>
+      </c>
+      <c r="D180">
+        <v>9677</v>
+      </c>
+      <c r="E180">
+        <v>10000</v>
+      </c>
+      <c r="F180">
+        <v>0.05</v>
+      </c>
+      <c r="G180">
+        <v>0.1</v>
+      </c>
+      <c r="H180">
+        <v>20</v>
+      </c>
+      <c r="I180" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>27</v>
+      </c>
+      <c r="B181">
+        <v>181</v>
+      </c>
+      <c r="C181">
+        <v>129</v>
+      </c>
+      <c r="D181">
+        <v>9690</v>
+      </c>
+      <c r="E181">
+        <v>10000</v>
+      </c>
+      <c r="F181">
+        <v>0.05</v>
+      </c>
+      <c r="G181">
+        <v>0.1</v>
+      </c>
+      <c r="H181">
+        <v>20</v>
+      </c>
+      <c r="I181" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>28</v>
+      </c>
+      <c r="B182">
+        <v>181</v>
+      </c>
+      <c r="C182">
+        <v>130</v>
+      </c>
+      <c r="D182">
+        <v>9689</v>
+      </c>
+      <c r="E182">
+        <v>10000</v>
+      </c>
+      <c r="F182">
+        <v>0.05</v>
+      </c>
+      <c r="G182">
+        <v>0.1</v>
+      </c>
+      <c r="H182">
+        <v>20</v>
+      </c>
+      <c r="I182" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>29</v>
+      </c>
+      <c r="B183">
+        <v>187</v>
+      </c>
+      <c r="C183">
+        <v>128</v>
+      </c>
+      <c r="D183">
+        <v>9685</v>
+      </c>
+      <c r="E183">
+        <v>10000</v>
+      </c>
+      <c r="F183">
+        <v>0.05</v>
+      </c>
+      <c r="G183">
+        <v>0.1</v>
+      </c>
+      <c r="H183">
+        <v>20</v>
+      </c>
+      <c r="I183" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>30</v>
+      </c>
+      <c r="B184">
+        <v>191</v>
+      </c>
+      <c r="C184">
+        <v>143</v>
+      </c>
+      <c r="D184">
+        <v>9666</v>
+      </c>
+      <c r="E184">
+        <v>10000</v>
+      </c>
+      <c r="F184">
+        <v>0.05</v>
+      </c>
+      <c r="G184">
+        <v>0.1</v>
+      </c>
+      <c r="H184">
+        <v>20</v>
+      </c>
+      <c r="I184" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>31</v>
+      </c>
+      <c r="B185">
+        <v>180</v>
+      </c>
+      <c r="C185">
+        <v>142</v>
+      </c>
+      <c r="D185">
+        <v>9678</v>
+      </c>
+      <c r="E185">
+        <v>10000</v>
+      </c>
+      <c r="F185">
+        <v>0.05</v>
+      </c>
+      <c r="G185">
+        <v>0.1</v>
+      </c>
+      <c r="H185">
+        <v>20</v>
+      </c>
+      <c r="I185" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>32</v>
+      </c>
+      <c r="B186">
+        <v>182</v>
+      </c>
+      <c r="C186">
+        <v>159</v>
+      </c>
+      <c r="D186">
+        <v>9659</v>
+      </c>
+      <c r="E186">
+        <v>10000</v>
+      </c>
+      <c r="F186">
+        <v>0.05</v>
+      </c>
+      <c r="G186">
+        <v>0.1</v>
+      </c>
+      <c r="H186">
+        <v>20</v>
+      </c>
+      <c r="I186" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>33</v>
+      </c>
+      <c r="B187">
+        <v>185</v>
+      </c>
+      <c r="C187">
+        <v>153</v>
+      </c>
+      <c r="D187">
+        <v>9662</v>
+      </c>
+      <c r="E187">
+        <v>10000</v>
+      </c>
+      <c r="F187">
+        <v>0.05</v>
+      </c>
+      <c r="G187">
+        <v>0.1</v>
+      </c>
+      <c r="H187">
+        <v>20</v>
+      </c>
+      <c r="I187" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>34</v>
+      </c>
+      <c r="B188">
+        <v>215</v>
+      </c>
+      <c r="C188">
+        <v>132</v>
+      </c>
+      <c r="D188">
+        <v>9653</v>
+      </c>
+      <c r="E188">
+        <v>10000</v>
+      </c>
+      <c r="F188">
+        <v>0.05</v>
+      </c>
+      <c r="G188">
+        <v>0.1</v>
+      </c>
+      <c r="H188">
+        <v>20</v>
+      </c>
+      <c r="I188" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>35</v>
+      </c>
+      <c r="B189">
+        <v>169</v>
+      </c>
+      <c r="C189">
+        <v>134</v>
+      </c>
+      <c r="D189">
+        <v>9697</v>
+      </c>
+      <c r="E189">
+        <v>10000</v>
+      </c>
+      <c r="F189">
+        <v>0.05</v>
+      </c>
+      <c r="G189">
+        <v>0.1</v>
+      </c>
+      <c r="H189">
+        <v>20</v>
+      </c>
+      <c r="I189" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>36</v>
+      </c>
+      <c r="B190">
+        <v>183</v>
+      </c>
+      <c r="C190">
+        <v>132</v>
+      </c>
+      <c r="D190">
+        <v>9685</v>
+      </c>
+      <c r="E190">
+        <v>10000</v>
+      </c>
+      <c r="F190">
+        <v>0.05</v>
+      </c>
+      <c r="G190">
+        <v>0.1</v>
+      </c>
+      <c r="H190">
+        <v>20</v>
+      </c>
+      <c r="I190" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>37</v>
+      </c>
+      <c r="B191">
+        <v>202</v>
+      </c>
+      <c r="C191">
+        <v>154</v>
+      </c>
+      <c r="D191">
+        <v>9644</v>
+      </c>
+      <c r="E191">
+        <v>10000</v>
+      </c>
+      <c r="F191">
+        <v>0.05</v>
+      </c>
+      <c r="G191">
+        <v>0.1</v>
+      </c>
+      <c r="H191">
+        <v>20</v>
+      </c>
+      <c r="I191" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>38</v>
+      </c>
+      <c r="B192">
+        <v>183</v>
+      </c>
+      <c r="C192">
+        <v>159</v>
+      </c>
+      <c r="D192">
+        <v>9658</v>
+      </c>
+      <c r="E192">
+        <v>10000</v>
+      </c>
+      <c r="F192">
+        <v>0.05</v>
+      </c>
+      <c r="G192">
+        <v>0.1</v>
+      </c>
+      <c r="H192">
+        <v>20</v>
+      </c>
+      <c r="I192" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>39</v>
+      </c>
+      <c r="B193">
+        <v>147</v>
+      </c>
+      <c r="C193">
+        <v>166</v>
+      </c>
+      <c r="D193">
+        <v>9687</v>
+      </c>
+      <c r="E193">
+        <v>10000</v>
+      </c>
+      <c r="F193">
+        <v>0.05</v>
+      </c>
+      <c r="G193">
+        <v>0.1</v>
+      </c>
+      <c r="H193">
+        <v>20</v>
+      </c>
+      <c r="I193" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>40</v>
+      </c>
+      <c r="B194">
+        <v>193</v>
+      </c>
+      <c r="C194">
+        <v>134</v>
+      </c>
+      <c r="D194">
+        <v>9673</v>
+      </c>
+      <c r="E194">
+        <v>10000</v>
+      </c>
+      <c r="F194">
+        <v>0.05</v>
+      </c>
+      <c r="G194">
+        <v>0.1</v>
+      </c>
+      <c r="H194">
+        <v>20</v>
+      </c>
+      <c r="I194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>41</v>
+      </c>
+      <c r="B195">
+        <v>193</v>
+      </c>
+      <c r="C195">
+        <v>148</v>
+      </c>
+      <c r="D195">
+        <v>9659</v>
+      </c>
+      <c r="E195">
+        <v>10000</v>
+      </c>
+      <c r="F195">
+        <v>0.05</v>
+      </c>
+      <c r="G195">
+        <v>0.1</v>
+      </c>
+      <c r="H195">
+        <v>20</v>
+      </c>
+      <c r="I195" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>42</v>
+      </c>
+      <c r="B196">
+        <v>179</v>
+      </c>
+      <c r="C196">
+        <v>138</v>
+      </c>
+      <c r="D196">
+        <v>9683</v>
+      </c>
+      <c r="E196">
+        <v>10000</v>
+      </c>
+      <c r="F196">
+        <v>0.05</v>
+      </c>
+      <c r="G196">
+        <v>0.1</v>
+      </c>
+      <c r="H196">
+        <v>20</v>
+      </c>
+      <c r="I196" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>43</v>
+      </c>
+      <c r="B197">
+        <v>157</v>
+      </c>
+      <c r="C197">
+        <v>147</v>
+      </c>
+      <c r="D197">
+        <v>9696</v>
+      </c>
+      <c r="E197">
+        <v>10000</v>
+      </c>
+      <c r="F197">
+        <v>0.05</v>
+      </c>
+      <c r="G197">
+        <v>0.1</v>
+      </c>
+      <c r="H197">
+        <v>20</v>
+      </c>
+      <c r="I197" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>44</v>
+      </c>
+      <c r="B198">
+        <v>201</v>
+      </c>
+      <c r="C198">
+        <v>137</v>
+      </c>
+      <c r="D198">
+        <v>9662</v>
+      </c>
+      <c r="E198">
+        <v>10000</v>
+      </c>
+      <c r="F198">
+        <v>0.05</v>
+      </c>
+      <c r="G198">
+        <v>0.1</v>
+      </c>
+      <c r="H198">
+        <v>20</v>
+      </c>
+      <c r="I198" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>45</v>
+      </c>
+      <c r="B199">
+        <v>189</v>
+      </c>
+      <c r="C199">
+        <v>161</v>
+      </c>
+      <c r="D199">
+        <v>9650</v>
+      </c>
+      <c r="E199">
+        <v>10000</v>
+      </c>
+      <c r="F199">
+        <v>0.05</v>
+      </c>
+      <c r="G199">
+        <v>0.1</v>
+      </c>
+      <c r="H199">
+        <v>20</v>
+      </c>
+      <c r="I199" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>46</v>
+      </c>
+      <c r="B200">
+        <v>147</v>
+      </c>
+      <c r="C200">
+        <v>135</v>
+      </c>
+      <c r="D200">
+        <v>9718</v>
+      </c>
+      <c r="E200">
+        <v>10000</v>
+      </c>
+      <c r="F200">
+        <v>0.05</v>
+      </c>
+      <c r="G200">
+        <v>0.1</v>
+      </c>
+      <c r="H200">
+        <v>20</v>
+      </c>
+      <c r="I200" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>47</v>
+      </c>
+      <c r="B201">
+        <v>176</v>
+      </c>
+      <c r="C201">
+        <v>145</v>
+      </c>
+      <c r="D201">
+        <v>9679</v>
+      </c>
+      <c r="E201">
+        <v>10000</v>
+      </c>
+      <c r="F201">
+        <v>0.05</v>
+      </c>
+      <c r="G201">
+        <v>0.1</v>
+      </c>
+      <c r="H201">
+        <v>20</v>
+      </c>
+      <c r="I201" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>48</v>
+      </c>
+      <c r="B202">
+        <v>190</v>
+      </c>
+      <c r="C202">
+        <v>135</v>
+      </c>
+      <c r="D202">
+        <v>9675</v>
+      </c>
+      <c r="E202">
+        <v>10000</v>
+      </c>
+      <c r="F202">
+        <v>0.05</v>
+      </c>
+      <c r="G202">
+        <v>0.1</v>
+      </c>
+      <c r="H202">
+        <v>20</v>
+      </c>
+      <c r="I202" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>49</v>
+      </c>
+      <c r="B203">
+        <v>201</v>
+      </c>
+      <c r="C203">
+        <v>137</v>
+      </c>
+      <c r="D203">
+        <v>9662</v>
+      </c>
+      <c r="E203">
+        <v>10000</v>
+      </c>
+      <c r="F203">
+        <v>0.05</v>
+      </c>
+      <c r="G203">
+        <v>0.1</v>
+      </c>
+      <c r="H203">
+        <v>20</v>
+      </c>
+      <c r="I203" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>50</v>
+      </c>
+      <c r="B204">
+        <v>191</v>
+      </c>
+      <c r="C204">
+        <v>152</v>
+      </c>
+      <c r="D204">
+        <v>9657</v>
+      </c>
+      <c r="E204">
+        <v>10000</v>
+      </c>
+      <c r="F204">
+        <v>0.05</v>
+      </c>
+      <c r="G204">
+        <v>0.1</v>
+      </c>
+      <c r="H204">
+        <v>20</v>
+      </c>
+      <c r="I204" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206">
+        <v>2159</v>
+      </c>
+      <c r="C206">
+        <v>348</v>
+      </c>
+      <c r="D206">
+        <v>47493</v>
+      </c>
+      <c r="E206">
+        <v>50000</v>
+      </c>
+      <c r="F206">
+        <v>0.1</v>
+      </c>
+      <c r="G206">
+        <v>0.05</v>
+      </c>
+      <c r="H206">
+        <v>10</v>
+      </c>
+      <c r="I206" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>2</v>
+      </c>
+      <c r="B207">
+        <v>2346</v>
+      </c>
+      <c r="C207">
+        <v>355</v>
+      </c>
+      <c r="D207">
+        <v>47299</v>
+      </c>
+      <c r="E207">
+        <v>50000</v>
+      </c>
+      <c r="F207">
+        <v>0.1</v>
+      </c>
+      <c r="G207">
+        <v>0.05</v>
+      </c>
+      <c r="H207">
+        <v>10</v>
+      </c>
+      <c r="I207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>3</v>
+      </c>
+      <c r="B208">
+        <v>2227</v>
+      </c>
+      <c r="C208">
+        <v>335</v>
+      </c>
+      <c r="D208">
+        <v>47438</v>
+      </c>
+      <c r="E208">
+        <v>50000</v>
+      </c>
+      <c r="F208">
+        <v>0.1</v>
+      </c>
+      <c r="G208">
+        <v>0.05</v>
+      </c>
+      <c r="H208">
+        <v>10</v>
+      </c>
+      <c r="I208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>4</v>
+      </c>
+      <c r="B209">
+        <v>2243</v>
+      </c>
+      <c r="C209">
+        <v>347</v>
+      </c>
+      <c r="D209">
+        <v>47410</v>
+      </c>
+      <c r="E209">
+        <v>50000</v>
+      </c>
+      <c r="F209">
+        <v>0.1</v>
+      </c>
+      <c r="G209">
+        <v>0.05</v>
+      </c>
+      <c r="H209">
+        <v>10</v>
+      </c>
+      <c r="I209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>5</v>
+      </c>
+      <c r="B210">
+        <v>2170</v>
+      </c>
+      <c r="C210">
+        <v>331</v>
+      </c>
+      <c r="D210">
+        <v>47499</v>
+      </c>
+      <c r="E210">
+        <v>50000</v>
+      </c>
+      <c r="F210">
+        <v>0.1</v>
+      </c>
+      <c r="G210">
+        <v>0.05</v>
+      </c>
+      <c r="H210">
+        <v>10</v>
+      </c>
+      <c r="I210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>6</v>
+      </c>
+      <c r="B211">
+        <v>2112</v>
+      </c>
+      <c r="C211">
+        <v>334</v>
+      </c>
+      <c r="D211">
+        <v>47554</v>
+      </c>
+      <c r="E211">
+        <v>50000</v>
+      </c>
+      <c r="F211">
+        <v>0.1</v>
+      </c>
+      <c r="G211">
+        <v>0.05</v>
+      </c>
+      <c r="H211">
+        <v>10</v>
+      </c>
+      <c r="I211" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>7</v>
+      </c>
+      <c r="B212">
+        <v>2195</v>
+      </c>
+      <c r="C212">
+        <v>321</v>
+      </c>
+      <c r="D212">
+        <v>47484</v>
+      </c>
+      <c r="E212">
+        <v>50000</v>
+      </c>
+      <c r="F212">
+        <v>0.1</v>
+      </c>
+      <c r="G212">
+        <v>0.05</v>
+      </c>
+      <c r="H212">
+        <v>10</v>
+      </c>
+      <c r="I212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>8</v>
+      </c>
+      <c r="B213">
+        <v>2207</v>
+      </c>
+      <c r="C213">
+        <v>352</v>
+      </c>
+      <c r="D213">
+        <v>47441</v>
+      </c>
+      <c r="E213">
+        <v>50000</v>
+      </c>
+      <c r="F213">
+        <v>0.1</v>
+      </c>
+      <c r="G213">
+        <v>0.05</v>
+      </c>
+      <c r="H213">
+        <v>10</v>
+      </c>
+      <c r="I213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>9</v>
+      </c>
+      <c r="B214">
+        <v>2299</v>
+      </c>
+      <c r="C214">
+        <v>326</v>
+      </c>
+      <c r="D214">
+        <v>47375</v>
+      </c>
+      <c r="E214">
+        <v>50000</v>
+      </c>
+      <c r="F214">
+        <v>0.1</v>
+      </c>
+      <c r="G214">
+        <v>0.05</v>
+      </c>
+      <c r="H214">
+        <v>10</v>
+      </c>
+      <c r="I214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>10</v>
+      </c>
+      <c r="B215">
+        <v>2205</v>
+      </c>
+      <c r="C215">
+        <v>353</v>
+      </c>
+      <c r="D215">
+        <v>47442</v>
+      </c>
+      <c r="E215">
+        <v>50000</v>
+      </c>
+      <c r="F215">
+        <v>0.1</v>
+      </c>
+      <c r="G215">
+        <v>0.05</v>
+      </c>
+      <c r="H215">
+        <v>10</v>
+      </c>
+      <c r="I215" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>11</v>
+      </c>
+      <c r="B216">
+        <v>2201</v>
+      </c>
+      <c r="C216">
+        <v>333</v>
+      </c>
+      <c r="D216">
+        <v>47466</v>
+      </c>
+      <c r="E216">
+        <v>50000</v>
+      </c>
+      <c r="F216">
+        <v>0.1</v>
+      </c>
+      <c r="G216">
+        <v>0.05</v>
+      </c>
+      <c r="H216">
+        <v>10</v>
+      </c>
+      <c r="I216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>12</v>
+      </c>
+      <c r="B217">
+        <v>2195</v>
+      </c>
+      <c r="C217">
+        <v>388</v>
+      </c>
+      <c r="D217">
+        <v>47417</v>
+      </c>
+      <c r="E217">
+        <v>50000</v>
+      </c>
+      <c r="F217">
+        <v>0.1</v>
+      </c>
+      <c r="G217">
+        <v>0.05</v>
+      </c>
+      <c r="H217">
+        <v>10</v>
+      </c>
+      <c r="I217" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>13</v>
+      </c>
+      <c r="B218">
+        <v>2254</v>
+      </c>
+      <c r="C218">
+        <v>357</v>
+      </c>
+      <c r="D218">
+        <v>47389</v>
+      </c>
+      <c r="E218">
+        <v>50000</v>
+      </c>
+      <c r="F218">
+        <v>0.1</v>
+      </c>
+      <c r="G218">
+        <v>0.05</v>
+      </c>
+      <c r="H218">
+        <v>10</v>
+      </c>
+      <c r="I218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>14</v>
+      </c>
+      <c r="B219">
+        <v>2189</v>
+      </c>
+      <c r="C219">
+        <v>335</v>
+      </c>
+      <c r="D219">
+        <v>47476</v>
+      </c>
+      <c r="E219">
+        <v>50000</v>
+      </c>
+      <c r="F219">
+        <v>0.1</v>
+      </c>
+      <c r="G219">
+        <v>0.05</v>
+      </c>
+      <c r="H219">
+        <v>10</v>
+      </c>
+      <c r="I219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>15</v>
+      </c>
+      <c r="B220">
+        <v>2216</v>
+      </c>
+      <c r="C220">
+        <v>353</v>
+      </c>
+      <c r="D220">
+        <v>47431</v>
+      </c>
+      <c r="E220">
+        <v>50000</v>
+      </c>
+      <c r="F220">
+        <v>0.1</v>
+      </c>
+      <c r="G220">
+        <v>0.05</v>
+      </c>
+      <c r="H220">
+        <v>10</v>
+      </c>
+      <c r="I220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>16</v>
+      </c>
+      <c r="B221">
+        <v>2162</v>
+      </c>
+      <c r="C221">
+        <v>340</v>
+      </c>
+      <c r="D221">
+        <v>47498</v>
+      </c>
+      <c r="E221">
+        <v>50000</v>
+      </c>
+      <c r="F221">
+        <v>0.1</v>
+      </c>
+      <c r="G221">
+        <v>0.05</v>
+      </c>
+      <c r="H221">
+        <v>10</v>
+      </c>
+      <c r="I221" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>17</v>
+      </c>
+      <c r="B222">
+        <v>2267</v>
+      </c>
+      <c r="C222">
+        <v>332</v>
+      </c>
+      <c r="D222">
+        <v>47401</v>
+      </c>
+      <c r="E222">
+        <v>50000</v>
+      </c>
+      <c r="F222">
+        <v>0.1</v>
+      </c>
+      <c r="G222">
+        <v>0.05</v>
+      </c>
+      <c r="H222">
+        <v>10</v>
+      </c>
+      <c r="I222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>18</v>
+      </c>
+      <c r="B223">
+        <v>2226</v>
+      </c>
+      <c r="C223">
+        <v>352</v>
+      </c>
+      <c r="D223">
+        <v>47422</v>
+      </c>
+      <c r="E223">
+        <v>50000</v>
+      </c>
+      <c r="F223">
+        <v>0.1</v>
+      </c>
+      <c r="G223">
+        <v>0.05</v>
+      </c>
+      <c r="H223">
+        <v>10</v>
+      </c>
+      <c r="I223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>19</v>
+      </c>
+      <c r="B224">
+        <v>2173</v>
+      </c>
+      <c r="C224">
+        <v>347</v>
+      </c>
+      <c r="D224">
+        <v>47480</v>
+      </c>
+      <c r="E224">
+        <v>50000</v>
+      </c>
+      <c r="F224">
+        <v>0.1</v>
+      </c>
+      <c r="G224">
+        <v>0.05</v>
+      </c>
+      <c r="H224">
+        <v>10</v>
+      </c>
+      <c r="I224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>20</v>
+      </c>
+      <c r="B225">
+        <v>2192</v>
+      </c>
+      <c r="C225">
+        <v>333</v>
+      </c>
+      <c r="D225">
+        <v>47475</v>
+      </c>
+      <c r="E225">
+        <v>50000</v>
+      </c>
+      <c r="F225">
+        <v>0.1</v>
+      </c>
+      <c r="G225">
+        <v>0.05</v>
+      </c>
+      <c r="H225">
+        <v>10</v>
+      </c>
+      <c r="I225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>21</v>
+      </c>
+      <c r="B226">
+        <v>2191</v>
+      </c>
+      <c r="C226">
+        <v>367</v>
+      </c>
+      <c r="D226">
+        <v>47442</v>
+      </c>
+      <c r="E226">
+        <v>50000</v>
+      </c>
+      <c r="F226">
+        <v>0.1</v>
+      </c>
+      <c r="G226">
+        <v>0.05</v>
+      </c>
+      <c r="H226">
+        <v>10</v>
+      </c>
+      <c r="I226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>22</v>
+      </c>
+      <c r="B227">
+        <v>2163</v>
+      </c>
+      <c r="C227">
+        <v>336</v>
+      </c>
+      <c r="D227">
+        <v>47501</v>
+      </c>
+      <c r="E227">
+        <v>50000</v>
+      </c>
+      <c r="F227">
+        <v>0.1</v>
+      </c>
+      <c r="G227">
+        <v>0.05</v>
+      </c>
+      <c r="H227">
+        <v>10</v>
+      </c>
+      <c r="I227" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>23</v>
+      </c>
+      <c r="B228">
+        <v>2151</v>
+      </c>
+      <c r="C228">
+        <v>383</v>
+      </c>
+      <c r="D228">
+        <v>47466</v>
+      </c>
+      <c r="E228">
+        <v>50000</v>
+      </c>
+      <c r="F228">
+        <v>0.1</v>
+      </c>
+      <c r="G228">
+        <v>0.05</v>
+      </c>
+      <c r="H228">
+        <v>10</v>
+      </c>
+      <c r="I228" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>24</v>
+      </c>
+      <c r="B229">
+        <v>2290</v>
+      </c>
+      <c r="C229">
+        <v>394</v>
+      </c>
+      <c r="D229">
+        <v>47316</v>
+      </c>
+      <c r="E229">
+        <v>50000</v>
+      </c>
+      <c r="F229">
+        <v>0.1</v>
+      </c>
+      <c r="G229">
+        <v>0.05</v>
+      </c>
+      <c r="H229">
+        <v>10</v>
+      </c>
+      <c r="I229" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>25</v>
+      </c>
+      <c r="B230">
+        <v>2188</v>
+      </c>
+      <c r="C230">
+        <v>331</v>
+      </c>
+      <c r="D230">
+        <v>47481</v>
+      </c>
+      <c r="E230">
+        <v>50000</v>
+      </c>
+      <c r="F230">
+        <v>0.1</v>
+      </c>
+      <c r="G230">
+        <v>0.05</v>
+      </c>
+      <c r="H230">
+        <v>10</v>
+      </c>
+      <c r="I230" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>26</v>
+      </c>
+      <c r="B231">
+        <v>2195</v>
+      </c>
+      <c r="C231">
+        <v>335</v>
+      </c>
+      <c r="D231">
+        <v>47470</v>
+      </c>
+      <c r="E231">
+        <v>50000</v>
+      </c>
+      <c r="F231">
+        <v>0.1</v>
+      </c>
+      <c r="G231">
+        <v>0.05</v>
+      </c>
+      <c r="H231">
+        <v>10</v>
+      </c>
+      <c r="I231" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>27</v>
+      </c>
+      <c r="B232">
+        <v>2183</v>
+      </c>
+      <c r="C232">
+        <v>332</v>
+      </c>
+      <c r="D232">
+        <v>47485</v>
+      </c>
+      <c r="E232">
+        <v>50000</v>
+      </c>
+      <c r="F232">
+        <v>0.1</v>
+      </c>
+      <c r="G232">
+        <v>0.05</v>
+      </c>
+      <c r="H232">
+        <v>10</v>
+      </c>
+      <c r="I232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>28</v>
+      </c>
+      <c r="B233">
+        <v>2186</v>
+      </c>
+      <c r="C233">
+        <v>341</v>
+      </c>
+      <c r="D233">
+        <v>47473</v>
+      </c>
+      <c r="E233">
+        <v>50000</v>
+      </c>
+      <c r="F233">
+        <v>0.1</v>
+      </c>
+      <c r="G233">
+        <v>0.05</v>
+      </c>
+      <c r="H233">
+        <v>10</v>
+      </c>
+      <c r="I233" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>29</v>
+      </c>
+      <c r="B234">
+        <v>2237</v>
+      </c>
+      <c r="C234">
+        <v>355</v>
+      </c>
+      <c r="D234">
+        <v>47408</v>
+      </c>
+      <c r="E234">
+        <v>50000</v>
+      </c>
+      <c r="F234">
+        <v>0.1</v>
+      </c>
+      <c r="G234">
+        <v>0.05</v>
+      </c>
+      <c r="H234">
+        <v>10</v>
+      </c>
+      <c r="I234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>30</v>
+      </c>
+      <c r="B235">
+        <v>2218</v>
+      </c>
+      <c r="C235">
+        <v>345</v>
+      </c>
+      <c r="D235">
+        <v>47437</v>
+      </c>
+      <c r="E235">
+        <v>50000</v>
+      </c>
+      <c r="F235">
+        <v>0.1</v>
+      </c>
+      <c r="G235">
+        <v>0.05</v>
+      </c>
+      <c r="H235">
+        <v>10</v>
+      </c>
+      <c r="I235" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>31</v>
+      </c>
+      <c r="B236">
+        <v>2224</v>
+      </c>
+      <c r="C236">
+        <v>365</v>
+      </c>
+      <c r="D236">
+        <v>47411</v>
+      </c>
+      <c r="E236">
+        <v>50000</v>
+      </c>
+      <c r="F236">
+        <v>0.1</v>
+      </c>
+      <c r="G236">
+        <v>0.05</v>
+      </c>
+      <c r="H236">
+        <v>10</v>
+      </c>
+      <c r="I236" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>32</v>
+      </c>
+      <c r="B237">
+        <v>2198</v>
+      </c>
+      <c r="C237">
+        <v>342</v>
+      </c>
+      <c r="D237">
+        <v>47460</v>
+      </c>
+      <c r="E237">
+        <v>50000</v>
+      </c>
+      <c r="F237">
+        <v>0.1</v>
+      </c>
+      <c r="G237">
+        <v>0.05</v>
+      </c>
+      <c r="H237">
+        <v>10</v>
+      </c>
+      <c r="I237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>33</v>
+      </c>
+      <c r="B238">
+        <v>2221</v>
+      </c>
+      <c r="C238">
+        <v>353</v>
+      </c>
+      <c r="D238">
+        <v>47426</v>
+      </c>
+      <c r="E238">
+        <v>50000</v>
+      </c>
+      <c r="F238">
+        <v>0.1</v>
+      </c>
+      <c r="G238">
+        <v>0.05</v>
+      </c>
+      <c r="H238">
+        <v>10</v>
+      </c>
+      <c r="I238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>34</v>
+      </c>
+      <c r="B239">
+        <v>2183</v>
+      </c>
+      <c r="C239">
+        <v>347</v>
+      </c>
+      <c r="D239">
+        <v>47470</v>
+      </c>
+      <c r="E239">
+        <v>50000</v>
+      </c>
+      <c r="F239">
+        <v>0.1</v>
+      </c>
+      <c r="G239">
+        <v>0.05</v>
+      </c>
+      <c r="H239">
+        <v>10</v>
+      </c>
+      <c r="I239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>35</v>
+      </c>
+      <c r="B240">
+        <v>2123</v>
+      </c>
+      <c r="C240">
+        <v>358</v>
+      </c>
+      <c r="D240">
+        <v>47519</v>
+      </c>
+      <c r="E240">
+        <v>50000</v>
+      </c>
+      <c r="F240">
+        <v>0.1</v>
+      </c>
+      <c r="G240">
+        <v>0.05</v>
+      </c>
+      <c r="H240">
+        <v>10</v>
+      </c>
+      <c r="I240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>36</v>
+      </c>
+      <c r="B241">
+        <v>2190</v>
+      </c>
+      <c r="C241">
+        <v>355</v>
+      </c>
+      <c r="D241">
+        <v>47455</v>
+      </c>
+      <c r="E241">
+        <v>50000</v>
+      </c>
+      <c r="F241">
+        <v>0.1</v>
+      </c>
+      <c r="G241">
+        <v>0.05</v>
+      </c>
+      <c r="H241">
+        <v>10</v>
+      </c>
+      <c r="I241" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>37</v>
+      </c>
+      <c r="B242">
+        <v>2264</v>
+      </c>
+      <c r="C242">
+        <v>357</v>
+      </c>
+      <c r="D242">
+        <v>47379</v>
+      </c>
+      <c r="E242">
+        <v>50000</v>
+      </c>
+      <c r="F242">
+        <v>0.1</v>
+      </c>
+      <c r="G242">
+        <v>0.05</v>
+      </c>
+      <c r="H242">
+        <v>10</v>
+      </c>
+      <c r="I242" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>38</v>
+      </c>
+      <c r="B243">
+        <v>2217</v>
+      </c>
+      <c r="C243">
+        <v>326</v>
+      </c>
+      <c r="D243">
+        <v>47457</v>
+      </c>
+      <c r="E243">
+        <v>50000</v>
+      </c>
+      <c r="F243">
+        <v>0.1</v>
+      </c>
+      <c r="G243">
+        <v>0.05</v>
+      </c>
+      <c r="H243">
+        <v>10</v>
+      </c>
+      <c r="I243" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>39</v>
+      </c>
+      <c r="B244">
+        <v>2313</v>
+      </c>
+      <c r="C244">
+        <v>359</v>
+      </c>
+      <c r="D244">
+        <v>47328</v>
+      </c>
+      <c r="E244">
+        <v>50000</v>
+      </c>
+      <c r="F244">
+        <v>0.1</v>
+      </c>
+      <c r="G244">
+        <v>0.05</v>
+      </c>
+      <c r="H244">
+        <v>10</v>
+      </c>
+      <c r="I244" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>40</v>
+      </c>
+      <c r="B245">
+        <v>2106</v>
+      </c>
+      <c r="C245">
+        <v>347</v>
+      </c>
+      <c r="D245">
+        <v>47547</v>
+      </c>
+      <c r="E245">
+        <v>50000</v>
+      </c>
+      <c r="F245">
+        <v>0.1</v>
+      </c>
+      <c r="G245">
+        <v>0.05</v>
+      </c>
+      <c r="H245">
+        <v>10</v>
+      </c>
+      <c r="I245" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>41</v>
+      </c>
+      <c r="B246">
+        <v>2216</v>
+      </c>
+      <c r="C246">
+        <v>336</v>
+      </c>
+      <c r="D246">
+        <v>47448</v>
+      </c>
+      <c r="E246">
+        <v>50000</v>
+      </c>
+      <c r="F246">
+        <v>0.1</v>
+      </c>
+      <c r="G246">
+        <v>0.05</v>
+      </c>
+      <c r="H246">
+        <v>10</v>
+      </c>
+      <c r="I246" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>42</v>
+      </c>
+      <c r="B247">
+        <v>2211</v>
+      </c>
+      <c r="C247">
+        <v>356</v>
+      </c>
+      <c r="D247">
+        <v>47433</v>
+      </c>
+      <c r="E247">
+        <v>50000</v>
+      </c>
+      <c r="F247">
+        <v>0.1</v>
+      </c>
+      <c r="G247">
+        <v>0.05</v>
+      </c>
+      <c r="H247">
+        <v>10</v>
+      </c>
+      <c r="I247" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>43</v>
+      </c>
+      <c r="B248">
+        <v>2165</v>
+      </c>
+      <c r="C248">
+        <v>359</v>
+      </c>
+      <c r="D248">
+        <v>47476</v>
+      </c>
+      <c r="E248">
+        <v>50000</v>
+      </c>
+      <c r="F248">
+        <v>0.1</v>
+      </c>
+      <c r="G248">
+        <v>0.05</v>
+      </c>
+      <c r="H248">
+        <v>10</v>
+      </c>
+      <c r="I248" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>44</v>
+      </c>
+      <c r="B249">
+        <v>2154</v>
+      </c>
+      <c r="C249">
+        <v>353</v>
+      </c>
+      <c r="D249">
+        <v>47493</v>
+      </c>
+      <c r="E249">
+        <v>50000</v>
+      </c>
+      <c r="F249">
+        <v>0.1</v>
+      </c>
+      <c r="G249">
+        <v>0.05</v>
+      </c>
+      <c r="H249">
+        <v>10</v>
+      </c>
+      <c r="I249" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>45</v>
+      </c>
+      <c r="B250">
+        <v>2200</v>
+      </c>
+      <c r="C250">
+        <v>363</v>
+      </c>
+      <c r="D250">
+        <v>47437</v>
+      </c>
+      <c r="E250">
+        <v>50000</v>
+      </c>
+      <c r="F250">
+        <v>0.1</v>
+      </c>
+      <c r="G250">
+        <v>0.05</v>
+      </c>
+      <c r="H250">
+        <v>10</v>
+      </c>
+      <c r="I250" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>46</v>
+      </c>
+      <c r="B251">
+        <v>2181</v>
+      </c>
+      <c r="C251">
+        <v>366</v>
+      </c>
+      <c r="D251">
+        <v>47453</v>
+      </c>
+      <c r="E251">
+        <v>50000</v>
+      </c>
+      <c r="F251">
+        <v>0.1</v>
+      </c>
+      <c r="G251">
+        <v>0.05</v>
+      </c>
+      <c r="H251">
+        <v>10</v>
+      </c>
+      <c r="I251" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>47</v>
+      </c>
+      <c r="B252">
+        <v>2080</v>
+      </c>
+      <c r="C252">
+        <v>381</v>
+      </c>
+      <c r="D252">
+        <v>47539</v>
+      </c>
+      <c r="E252">
+        <v>50000</v>
+      </c>
+      <c r="F252">
+        <v>0.1</v>
+      </c>
+      <c r="G252">
+        <v>0.05</v>
+      </c>
+      <c r="H252">
+        <v>10</v>
+      </c>
+      <c r="I252" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>48</v>
+      </c>
+      <c r="B253">
+        <v>2191</v>
+      </c>
+      <c r="C253">
+        <v>377</v>
+      </c>
+      <c r="D253">
+        <v>47432</v>
+      </c>
+      <c r="E253">
+        <v>50000</v>
+      </c>
+      <c r="F253">
+        <v>0.1</v>
+      </c>
+      <c r="G253">
+        <v>0.05</v>
+      </c>
+      <c r="H253">
+        <v>10</v>
+      </c>
+      <c r="I253" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>49</v>
+      </c>
+      <c r="B254">
+        <v>2250</v>
+      </c>
+      <c r="C254">
+        <v>389</v>
+      </c>
+      <c r="D254">
+        <v>47361</v>
+      </c>
+      <c r="E254">
+        <v>50000</v>
+      </c>
+      <c r="F254">
+        <v>0.1</v>
+      </c>
+      <c r="G254">
+        <v>0.05</v>
+      </c>
+      <c r="H254">
+        <v>10</v>
+      </c>
+      <c r="I254" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>50</v>
+      </c>
+      <c r="B255">
+        <v>2128</v>
+      </c>
+      <c r="C255">
+        <v>358</v>
+      </c>
+      <c r="D255">
+        <v>47514</v>
+      </c>
+      <c r="E255">
+        <v>50000</v>
+      </c>
+      <c r="F255">
+        <v>0.1</v>
+      </c>
+      <c r="G255">
+        <v>0.05</v>
+      </c>
+      <c r="H255">
+        <v>10</v>
+      </c>
+      <c r="I255" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
